--- a/Cloud Labs Login Credentials - Dynatrace - 08-12 Sep 2025 - BOA.xlsx
+++ b/Cloud Labs Login Credentials - Dynatrace - 08-12 Sep 2025 - BOA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\BOA_DT_08_09_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{378655CB-69D4-408B-9331-3FB5102CDEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B234B7-61A0-4662-86CF-06523C4D89F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1022,7 +1020,7 @@
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1101,6 +1099,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1203,7 +1204,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:colOff>1120140</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>300990</xdr:rowOff>
     </xdr:to>
@@ -1549,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1746,7 +1747,7 @@
       <c r="D12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="29" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -2219,22 +2220,22 @@
     <hyperlink ref="F23" r:id="rId32" xr:uid="{12FEF55E-563C-4BA0-99C7-266719BB64A7}"/>
     <hyperlink ref="E24" r:id="rId33" xr:uid="{736BC43B-F023-4CC7-963C-5AB01778F93F}"/>
     <hyperlink ref="F24" r:id="rId34" xr:uid="{6EAAD5CB-93AE-40D1-A03B-49E7C987D26B}"/>
-    <hyperlink ref="E25" r:id="rId35" xr:uid="{62B0D6FB-FB38-4AE0-BE3E-7EA1DD6BC855}"/>
-    <hyperlink ref="F25" r:id="rId36" xr:uid="{9840CE47-C5DD-4888-B1AF-CB5D15D75B4C}"/>
-    <hyperlink ref="E26" r:id="rId37" xr:uid="{6C0CB9DA-56E0-46F8-B51B-4FFCC3B57189}"/>
-    <hyperlink ref="F26" r:id="rId38" xr:uid="{CD486A66-2233-4433-ADFE-540231535FF5}"/>
-    <hyperlink ref="E27" r:id="rId39" xr:uid="{09BB9196-F2FB-4AC8-9D51-2BC3BC51D686}"/>
-    <hyperlink ref="F27" r:id="rId40" xr:uid="{149B5C89-9CF2-4569-A8DF-271627E51A90}"/>
-    <hyperlink ref="E28" r:id="rId41" xr:uid="{FD80223A-7231-4B91-A782-A27E02CFEB29}"/>
-    <hyperlink ref="F28" r:id="rId42" xr:uid="{E77D8F2B-2875-4E67-96DC-67A88D013742}"/>
-    <hyperlink ref="E29" r:id="rId43" xr:uid="{96874249-DF00-452C-AF5E-BFE9728D0A1F}"/>
-    <hyperlink ref="F29" r:id="rId44" xr:uid="{BA573C25-1EEF-42C7-A9B9-666E9D70E927}"/>
-    <hyperlink ref="E30" r:id="rId45" xr:uid="{7F0D92F1-3BE5-4323-961D-2A6FEA71C881}"/>
-    <hyperlink ref="F30" r:id="rId46" xr:uid="{8F57F1AC-0250-4B7A-9217-A6A18DC47BA5}"/>
-    <hyperlink ref="E31" r:id="rId47" xr:uid="{998AC951-AB81-4EAD-8FC7-8434342EFE05}"/>
-    <hyperlink ref="F31" r:id="rId48" xr:uid="{E9FA4A54-9390-461E-8AA7-B2A242D1A1F5}"/>
-    <hyperlink ref="E32" r:id="rId49" xr:uid="{32F45617-96EC-4049-B014-B3F3E932B98F}"/>
-    <hyperlink ref="F32" r:id="rId50" xr:uid="{080FA5CE-CED2-486C-BEDF-437FCEF8C6E2}"/>
+    <hyperlink ref="F25" r:id="rId35" xr:uid="{9840CE47-C5DD-4888-B1AF-CB5D15D75B4C}"/>
+    <hyperlink ref="E26" r:id="rId36" xr:uid="{6C0CB9DA-56E0-46F8-B51B-4FFCC3B57189}"/>
+    <hyperlink ref="F26" r:id="rId37" xr:uid="{CD486A66-2233-4433-ADFE-540231535FF5}"/>
+    <hyperlink ref="E27" r:id="rId38" xr:uid="{09BB9196-F2FB-4AC8-9D51-2BC3BC51D686}"/>
+    <hyperlink ref="F27" r:id="rId39" xr:uid="{149B5C89-9CF2-4569-A8DF-271627E51A90}"/>
+    <hyperlink ref="E28" r:id="rId40" xr:uid="{FD80223A-7231-4B91-A782-A27E02CFEB29}"/>
+    <hyperlink ref="F28" r:id="rId41" xr:uid="{E77D8F2B-2875-4E67-96DC-67A88D013742}"/>
+    <hyperlink ref="E29" r:id="rId42" xr:uid="{96874249-DF00-452C-AF5E-BFE9728D0A1F}"/>
+    <hyperlink ref="F29" r:id="rId43" xr:uid="{BA573C25-1EEF-42C7-A9B9-666E9D70E927}"/>
+    <hyperlink ref="E30" r:id="rId44" xr:uid="{7F0D92F1-3BE5-4323-961D-2A6FEA71C881}"/>
+    <hyperlink ref="F30" r:id="rId45" xr:uid="{8F57F1AC-0250-4B7A-9217-A6A18DC47BA5}"/>
+    <hyperlink ref="E31" r:id="rId46" xr:uid="{998AC951-AB81-4EAD-8FC7-8434342EFE05}"/>
+    <hyperlink ref="F31" r:id="rId47" xr:uid="{E9FA4A54-9390-461E-8AA7-B2A242D1A1F5}"/>
+    <hyperlink ref="E32" r:id="rId48" xr:uid="{32F45617-96EC-4049-B014-B3F3E932B98F}"/>
+    <hyperlink ref="F32" r:id="rId49" xr:uid="{080FA5CE-CED2-486C-BEDF-437FCEF8C6E2}"/>
+    <hyperlink ref="E25" r:id="rId50" xr:uid="{62B0D6FB-FB38-4AE0-BE3E-7EA1DD6BC855}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId51"/>

--- a/Cloud Labs Login Credentials - Dynatrace - 08-12 Sep 2025 - BOA.xlsx
+++ b/Cloud Labs Login Credentials - Dynatrace - 08-12 Sep 2025 - BOA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\BOA_DT_08_09_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B234B7-61A0-4662-86CF-06523C4D89F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746B6DF9-615B-49D8-AF48-4073CE975091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud Labs Creds 08-12 Sep 2025" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="147">
   <si>
     <t>Username</t>
   </si>
@@ -388,6 +388,93 @@
   </si>
   <si>
     <t>Mail ID Login Url</t>
+  </si>
+  <si>
+    <t>54.227.67.17</t>
+  </si>
+  <si>
+    <t>54.167.106.70</t>
+  </si>
+  <si>
+    <t>34.229.13.150</t>
+  </si>
+  <si>
+    <t>50.17.23.206</t>
+  </si>
+  <si>
+    <t>54.163.192.5</t>
+  </si>
+  <si>
+    <t>54.234.91.73</t>
+  </si>
+  <si>
+    <t>34.207.116.167</t>
+  </si>
+  <si>
+    <t>3.92.144.42</t>
+  </si>
+  <si>
+    <t>52.201.254.129</t>
+  </si>
+  <si>
+    <t>34.229.91.179</t>
+  </si>
+  <si>
+    <t>18.207.153.239</t>
+  </si>
+  <si>
+    <t>54.221.49.96</t>
+  </si>
+  <si>
+    <t>54.144.255.27</t>
+  </si>
+  <si>
+    <t>54.221.11.164</t>
+  </si>
+  <si>
+    <t>54.147.162.36</t>
+  </si>
+  <si>
+    <t>18.205.234.152</t>
+  </si>
+  <si>
+    <t>13.221.133.210</t>
+  </si>
+  <si>
+    <t>54.144.114.29</t>
+  </si>
+  <si>
+    <t>34.201.92.115</t>
+  </si>
+  <si>
+    <t>54.145.23.119</t>
+  </si>
+  <si>
+    <t>3.88.142.202</t>
+  </si>
+  <si>
+    <t>35.172.180.29</t>
+  </si>
+  <si>
+    <t>54.226.85.202</t>
+  </si>
+  <si>
+    <t>54.82.44.183</t>
+  </si>
+  <si>
+    <t>3.91.243.223</t>
+  </si>
+  <si>
+    <t>13.221.130.227</t>
+  </si>
+  <si>
+    <t>ubuntu</t>
+  </si>
+  <si>
+    <t>IP ADDRESS</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1107,7 @@
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1061,6 +1148,9 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1100,9 +1190,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1548,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1561,80 +1650,83 @@
     <col min="3" max="4" width="22" style="3" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1653,8 +1745,14 @@
       <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H7" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1673,8 +1771,14 @@
       <c r="F8" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H8" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1693,8 +1797,14 @@
       <c r="F9" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H9" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -1713,8 +1823,14 @@
       <c r="F10" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H10" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -1733,8 +1849,14 @@
       <c r="F11" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H11" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -1747,14 +1869,20 @@
       <c r="D12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H12" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -1773,8 +1901,14 @@
       <c r="F13" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H13" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -1793,8 +1927,14 @@
       <c r="F14" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H14" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>8</v>
       </c>
@@ -1813,8 +1953,14 @@
       <c r="F15" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H15" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>9</v>
       </c>
@@ -1833,8 +1979,14 @@
       <c r="F16" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H16" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>10</v>
       </c>
@@ -1853,8 +2005,14 @@
       <c r="F17" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H17" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>11</v>
       </c>
@@ -1873,8 +2031,14 @@
       <c r="F18" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H18" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>12</v>
       </c>
@@ -1893,8 +2057,14 @@
       <c r="F19" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H19" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>13</v>
       </c>
@@ -1913,8 +2083,14 @@
       <c r="F20" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H20" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>14</v>
       </c>
@@ -1933,8 +2109,14 @@
       <c r="F21" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H21" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>15</v>
       </c>
@@ -1953,8 +2135,14 @@
       <c r="F22" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H22" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>16</v>
       </c>
@@ -1973,8 +2161,14 @@
       <c r="F23" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H23" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>17</v>
       </c>
@@ -1993,8 +2187,14 @@
       <c r="F24" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H24" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>18</v>
       </c>
@@ -2013,8 +2213,14 @@
       <c r="F25" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H25" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>19</v>
       </c>
@@ -2033,8 +2239,14 @@
       <c r="F26" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H26" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>20</v>
       </c>
@@ -2053,8 +2265,14 @@
       <c r="F27" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H27" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>21</v>
       </c>
@@ -2073,8 +2291,14 @@
       <c r="F28" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H28" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>22</v>
       </c>
@@ -2093,8 +2317,14 @@
       <c r="F29" s="12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H29" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>23</v>
       </c>
@@ -2113,8 +2343,14 @@
       <c r="F30" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H30" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>24</v>
       </c>
@@ -2133,8 +2369,14 @@
       <c r="F31" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H31" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="5">
         <v>25</v>
       </c>
@@ -2153,8 +2395,14 @@
       <c r="F32" s="13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H32" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="9">
         <v>26</v>
       </c>
@@ -2169,6 +2417,12 @@
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
+      <c r="H33" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
